--- a/agroconnect/public/management/components/template/Damage_Report_Template.xlsx
+++ b/agroconnect/public/management/components/template/Damage_Report_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AgroConnect\capstone 2 dev journey\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2117BD91-20A1-45E3-B1B5-C1C3903B4282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009C9E2E-E7D1-4A29-99AF-0C7021773D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BFF8A1FD-4D92-40C7-8702-C5A9B6A95520}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>NUMBER OF FARMERS AFFECTED</t>
   </si>
   <si>
-    <t>AREA AFFECTED (HA) - Total</t>
-  </si>
-  <si>
     <t>Yield Loss (%)</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>DAMAGE MONITORING REPORT</t>
+  </si>
+  <si>
+    <t>TOTAL AREA AFFECTED (HA)</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -699,7 +699,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -739,24 +739,24 @@
         <v>12</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="13">
         <v>6</v>
@@ -773,13 +773,13 @@
     </row>
     <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="13">
         <v>3</v>
@@ -796,13 +796,13 @@
     </row>
     <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="D7" s="14">
         <v>1</v>
@@ -819,13 +819,13 @@
     </row>
     <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="14">
         <v>2</v>
@@ -842,13 +842,13 @@
     </row>
     <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="14">
         <v>1</v>
@@ -865,13 +865,13 @@
     </row>
     <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -888,13 +888,13 @@
     </row>
     <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="14">
         <v>1</v>
